--- a/Sun Pharmaceutical.xlsx
+++ b/Sun Pharmaceutical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B25DB0-C414-422B-BD03-7799C857A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA11E7-2679-4048-959B-06450C42F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="435" windowWidth="24690" windowHeight="20340" xr2:uid="{2804E39D-5296-473D-A17D-443404DD5D3E}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{2804E39D-5296-473D-A17D-443404DD5D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Price INR</t>
   </si>
@@ -148,13 +148,34 @@
   </si>
   <si>
     <t>FY22</t>
+  </si>
+  <si>
+    <t>EV INR</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -165,6 +186,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -186,10 +214,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,12 +231,17 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7037D2C5-CD49-42D3-B70D-8BA5934C7A65}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -231,7 +265,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>18586</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -275,9 +309,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +349,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +455,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,20 +605,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877BF51-3531-4F8B-B54C-DB136B4A1D0F}">
-  <dimension ref="I2:K6"/>
+  <dimension ref="I2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
+        <v>1815.95</v>
       </c>
     </row>
     <row r="3" spans="9:11" x14ac:dyDescent="0.2">
@@ -595,7 +632,7 @@
         <v>2399</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="9:11" x14ac:dyDescent="0.2">
@@ -604,17 +641,40 @@
       </c>
       <c r="J4" s="1">
         <f>+J2*J3</f>
-        <v>2399000</v>
+        <v>4356464.05</v>
       </c>
     </row>
     <row r="5" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>3</v>
       </c>
+      <c r="J5" s="1">
+        <f>7695.5+68.8+33869+520.4+123985.8+245.1</f>
+        <v>166384.6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <f>110360.1+704.6+25491.2</f>
+        <v>136555.90000000002</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1">
+        <f>+J4-J5+J6</f>
+        <v>4326635.3499999996</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +684,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53269B-2360-4737-9277-78EB0C000931}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,161 +700,149 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA2" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>98488.2</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
         <v>107639</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M4" s="5">
         <v>110375</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="P3" s="4">
+      <c r="N4" s="5"/>
+      <c r="P4" s="4">
         <v>112999</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q4" s="4">
         <v>160804</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R4" s="4">
         <v>273920</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S4" s="4">
         <v>284870</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T4" s="4">
         <v>315784</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U4" s="4">
         <v>264895</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V4" s="4">
         <v>290659</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W4" s="4">
         <v>328375</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X4" s="4">
         <v>334981</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y4" s="4">
         <v>386545</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="AA4" s="4">
+        <v>498510.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <f>15849.4+8735.8+633.4</f>
-        <v>25218.6</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
-        <f>20006+9108.3-112.3</f>
-        <v>29002</v>
-      </c>
-      <c r="M4" s="3">
-        <f>20173.4+8810.5-1903.2</f>
-        <v>27080.7</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -803,24 +851,28 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <f>+I3-I4</f>
-        <v>73269.600000000006</v>
+        <f>15849.4+8735.8+633.4</f>
+        <v>25218.6</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3">
-        <f>+L3-L4</f>
-        <v>78637</v>
+        <f>20006+9108.3-112.3</f>
+        <v>29002</v>
       </c>
       <c r="M5" s="3">
-        <f>+M3-M4</f>
-        <v>83294.3</v>
+        <f>20173.4+8810.5-1903.2</f>
+        <v>27080.7</v>
       </c>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="1">
+        <f>69043.3+34661.5+2921.3</f>
+        <v>106626.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -829,24 +881,28 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <f>18062.7+25915.1</f>
-        <v>43977.8</v>
+        <f>+I4-I5</f>
+        <v>73269.600000000006</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3">
-        <f>20748.5+30479.9</f>
-        <v>51228.4</v>
+        <f>+L4-L5</f>
+        <v>78637</v>
       </c>
       <c r="M6" s="3">
-        <f>20045.6+30416.3</f>
-        <v>50461.899999999994</v>
+        <f>+M4-M5</f>
+        <v>83294.3</v>
       </c>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA6" s="1">
+        <f>+AA4-AA5</f>
+        <v>391884.30000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -855,24 +911,28 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <f>+I5-I6</f>
-        <v>29291.800000000003</v>
+        <f>18062.7+25915.1</f>
+        <v>43977.8</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3">
-        <f>+L5-L6</f>
-        <v>27408.6</v>
+        <f>20748.5+30479.9</f>
+        <v>51228.4</v>
       </c>
       <c r="M7" s="3">
-        <f>+M5-M6</f>
-        <v>32832.400000000009</v>
+        <f>20045.6+30416.3</f>
+        <v>50461.899999999994</v>
       </c>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="1">
+        <f>94290.6+154181.8</f>
+        <v>248472.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -881,21 +941,28 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <v>-359.5</v>
+        <f>+I6-I7</f>
+        <v>29291.800000000003</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
-        <v>-136.9</v>
+        <f>+L6-L7</f>
+        <v>27408.6</v>
       </c>
       <c r="M8" s="3">
-        <v>-193.9</v>
+        <f>+M6-M7</f>
+        <v>32832.400000000009</v>
       </c>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="1">
+        <f>+AA6-AA7</f>
+        <v>143411.90000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -904,24 +971,24 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <f>+I7+I8</f>
-        <v>28932.300000000003</v>
+        <v>-359.5</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3">
-        <f>+L7+L8</f>
-        <v>27271.699999999997</v>
+        <v>-136.9</v>
       </c>
       <c r="M9" s="3">
-        <f>+M7+M8</f>
-        <v>32638.500000000007</v>
+        <v>-193.9</v>
       </c>
       <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="1">
+        <v>2384.6999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -930,21 +997,28 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <v>1977.8</v>
+        <f>+I8+I9</f>
+        <v>28932.300000000003</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>1889.9</v>
+        <f>+L8+L9</f>
+        <v>27271.699999999997</v>
       </c>
       <c r="M10" s="3">
-        <v>1522.6</v>
+        <f>+M8+M9</f>
+        <v>32638.500000000007</v>
       </c>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA10" s="1">
+        <f>+AA8-AA9</f>
+        <v>141027.20000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -953,22 +1027,90 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <f>+I9-I10</f>
-        <v>26954.500000000004</v>
+        <v>1977.8</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
-        <f>+L9-L10</f>
+        <v>1889.9</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1522.6</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="AA11" s="1">
+        <v>14394.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <f>+I10-I11</f>
+        <v>26954.500000000004</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <f>+L10-L11</f>
         <v>25381.799999999996</v>
       </c>
-      <c r="M11" s="3">
-        <f>+M9-M10</f>
+      <c r="M12" s="3">
+        <f>+M10-M11</f>
         <v>31115.900000000009</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="AA12" s="1">
+        <f>+AA10-AA11</f>
+        <v>126632.70000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>49593.3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>121349.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>20855.8</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>22018.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>+Z15-Z16</f>
+        <v>28737.500000000004</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>+AA15-AA16</f>
+        <v>99331.700000000012</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{49CCA6A6-D113-4E47-AAF1-DD5ABC4F5D37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Sun Pharmaceutical.xlsx
+++ b/Sun Pharmaceutical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA11E7-2679-4048-959B-06450C42F1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C7E5C5-062F-4B15-84FF-3F320A1ABE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{2804E39D-5296-473D-A17D-443404DD5D3E}"/>
+    <workbookView xWindow="-35970" yWindow="0" windowWidth="35025" windowHeight="20160" xr2:uid="{2804E39D-5296-473D-A17D-443404DD5D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Price INR</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>CapEx</t>
+  </si>
+  <si>
+    <t>deuruxolitinib</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7877BF51-3531-4F8B-B54C-DB136B4A1D0F}">
-  <dimension ref="I2:K7"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,7 +619,10 @@
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +630,7 @@
         <v>1815.95</v>
       </c>
     </row>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -635,7 +641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>2</v>
       </c>
@@ -644,7 +650,7 @@
         <v>4356464.05</v>
       </c>
     </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -656,7 +662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -668,7 +674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>37</v>
       </c>
